--- a/downloaded_files/CMPS302_Tutorial-35565.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35565.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Julia Ehab thabet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جوليا عماد مكين كامل جورجى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Julia Emad Makin Kamel Georgy</x:t>
   </x:si>
   <x:si>
     <x:t>1220007</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1099,7 +1090,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6651274306</x:v>
+        <x:v>45906.6642546643</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1131,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6642546643</x:v>
+        <x:v>45913.6778714468</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1163,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.6778714468</x:v>
+        <x:v>45906.664772338</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1195,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.664772338</x:v>
+        <x:v>45906.6644033912</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6644033912</x:v>
+        <x:v>45913.6547210648</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.6547210648</x:v>
+        <x:v>45906.6647793634</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647793634</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647810185</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45906.6647888889</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6647888889</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45906.4386726505</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4386726505</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45906.664712963</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6644394676</x:v>
+        <x:v>45907.4192991088</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4192991088</x:v>
+        <x:v>45906.6651491551</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6651491551</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45907.4199854514</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4199854514</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45907.4210460995</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4210460995</x:v>
+        <x:v>45906.6647616898</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6647616898</x:v>
+        <x:v>45907.420144213</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.420144213</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Algorithms Design and Analysis (CMPS302) Location : [3708]3708-45-الجيزة الرئيسي Time : Sunday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS302_Tutorial-35565.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35565.xlsx
@@ -138,7 +138,7 @@
     <x:t>عبدالرحمن مصطفى محمد رضوان احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
+    <x:t>ABDELRAHMAN MOSTAFA MOHAMMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1230205</x:t>
@@ -282,7 +282,7 @@
     <x:t>مصطفى ايهاب حلمي محمد رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>Mostafa Ehab Helmy Mohamed Radwan</x:t>
+    <x:t>MOSTAFA EHAB HELMY MOHAMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1230271</x:t>

--- a/downloaded_files/CMPS302_Tutorial-35565.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35565.xlsx
@@ -120,7 +120,7 @@
     <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
+    <x:t>RANA AHMED MOHAMED SAMIR MOHAMED FAHMY EIGHARABAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1220325</x:t>
@@ -327,7 +327,7 @@
     <x:t>يوسف ناصر سيد منسي ابراهيم</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssef Nasser Sayed Mansy</x:t>
+    <x:t>YOUSSEF NASSER SAYED MANSY IBRAHIM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -752,7 +752,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="36.700625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="55.420625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
